--- a/wcsa5seleniumproject/data/ActiTimeTestData.xlsx
+++ b/wcsa5seleniumproject/data/ActiTimeTestData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\WCSA5\wcsa5workspace\wcsa5seleniumproject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\wcsa5Repository\wcsa5seleniumproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C1D4B2-2259-4EF7-B64C-0B748421AD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B7E740-C526-46B4-9AA3-8A74B4A3884D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidCreds" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidCreds" sheetId="2" r:id="rId2"/>
+    <sheet name="managercreds" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>USERNAME</t>
   </si>
@@ -62,6 +63,24 @@
   </si>
   <si>
     <t>dmin123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRSTNAME </t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>manager_01</t>
+  </si>
+  <si>
+    <t>manager123</t>
   </si>
 </sst>
 </file>
@@ -132,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -140,6 +159,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -539,4 +559,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1C1CD3-A92E-4445-A924-B18D5FF09C67}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>